--- a/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.8923809686235962</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>1.249450689560286</v>
+        <v>1.249450689560285</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8125952057870126</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6292411492914726</v>
+        <v>0.6259298519808197</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7917634238949228</v>
+        <v>0.7929519618164291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7941387505326682</v>
+        <v>0.7930277515476997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9974120249170982</v>
+        <v>0.9812227032418008</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8160081429395128</v>
+        <v>0.8203869643720973</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.937369960182629</v>
+        <v>0.9540470284639611</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7796866051889669</v>
+        <v>0.7851547023744512</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.108986265217669</v>
+        <v>1.130594219157385</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7340351211742776</v>
+        <v>0.7344052733762521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8901154730157232</v>
+        <v>0.8930855213818777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8228436343054897</v>
+        <v>0.8231424401211456</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.089753040867379</v>
+        <v>1.085453652526876</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8466125049134766</v>
+        <v>0.8503043225144306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.163106667419212</v>
+        <v>1.175002798600495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.036217720460898</v>
+        <v>1.036660284125827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.222619981625626</v>
+        <v>1.21674248069626</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.106069729197347</v>
+        <v>1.098472277645018</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.262207389371008</v>
+        <v>1.255658470464817</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.027946917561162</v>
+        <v>1.022473160310359</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.388397505350886</v>
+        <v>1.382823988670181</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.910661118240516</v>
+        <v>0.9038854615929359</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.135520934164356</v>
+        <v>1.126338313220064</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9928195331553163</v>
+        <v>0.9921864725656291</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.266610443291493</v>
+        <v>1.261996134666689</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.83910136275115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.140354636673443</v>
+        <v>1.140354636673442</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9030005410323905</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5207349195959765</v>
+        <v>0.5196772069609654</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7682093202535005</v>
+        <v>0.7701948448853713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.72634212152288</v>
+        <v>0.7350759596647437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.01246993778047</v>
+        <v>1.005857105530792</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7830657817444059</v>
+        <v>0.7885440713011996</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.014057624029054</v>
+        <v>1.009161373511649</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8686038429972699</v>
+        <v>0.8745760969085293</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.14660136071178</v>
+        <v>1.155716968275768</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6861541105056987</v>
+        <v>0.6877445599256354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9096570928384876</v>
+        <v>0.9145274508818748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8197443569550202</v>
+        <v>0.8260421284360285</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.107052714170108</v>
+        <v>1.107690731013752</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7379393417536256</v>
+        <v>0.7292799696809987</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.040746411770343</v>
+        <v>1.058374041408452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9638494282963129</v>
+        <v>0.9592782443605936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.284383024283513</v>
+        <v>1.276257843818889</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.034313823243719</v>
+        <v>1.025432213121488</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.304080174703595</v>
+        <v>1.316223119856754</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.15784367053072</v>
+        <v>1.129163628836278</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.414903813815126</v>
+        <v>1.438223969733357</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8474393357214455</v>
+        <v>0.8501783769747617</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.112676656003326</v>
+        <v>1.12116541683171</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.001317172860864</v>
+        <v>1.008920174993666</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.292931201391121</v>
+        <v>1.304078976509426</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6165207753104185</v>
+        <v>0.6159088571022308</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.07118755670507</v>
+        <v>1.069848431256397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8867980395776933</v>
+        <v>0.8763288332956085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.277323933947529</v>
+        <v>1.287002983514044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9158802468455347</v>
+        <v>0.9374891212162598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.312098154989265</v>
+        <v>1.28814399207472</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.353667282034351</v>
+        <v>1.369708556568016</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.913715087723201</v>
+        <v>1.949092013822938</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7260396577771133</v>
+        <v>0.7256433943343862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.172682743205073</v>
+        <v>1.177743235700435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.033926117968297</v>
+        <v>1.030049696062585</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.514767990653315</v>
+        <v>1.526820253606882</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8039718570752757</v>
+        <v>0.8061671096754259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.359802332045324</v>
+        <v>1.349003484051457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.103818534930442</v>
+        <v>1.094052835801438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.690368322740114</v>
+        <v>1.672427478633519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.41918670687098</v>
+        <v>1.443207348919459</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.724643694245481</v>
+        <v>1.699785371776766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.954650856184808</v>
+        <v>1.946521148675169</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.449905159886754</v>
+        <v>2.452410386502945</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9281424323305149</v>
+        <v>0.9164826360939605</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.407314825557816</v>
+        <v>1.422916468076781</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.248599555310717</v>
+        <v>1.256798008670247</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.823989389202509</v>
+        <v>1.855813738664312</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7836223292287704</v>
+        <v>0.7832676446929998</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.038212013394199</v>
+        <v>1.040715423357861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9247208884071528</v>
+        <v>0.9236194966204077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.292330538631054</v>
+        <v>1.290757715150745</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9335693425373708</v>
+        <v>0.934552180545281</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.259391860284432</v>
+        <v>1.263086356316636</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.048180924449633</v>
+        <v>1.049531359901266</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.426190754593613</v>
+        <v>1.428567218680489</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8572499725854077</v>
+        <v>0.8609996117674154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.154355849744582</v>
+        <v>1.157175728945042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9979125307951904</v>
+        <v>1.001408599417982</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.38292986203362</v>
+        <v>1.375620848204129</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9246827365165969</v>
+        <v>0.9247876249958897</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.223824549485394</v>
+        <v>1.229251655986457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.08226369803111</v>
+        <v>1.078631701948946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.499379421523777</v>
+        <v>1.496350797165815</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.137331736265383</v>
+        <v>1.137100070298643</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.488073624050084</v>
+        <v>1.475681480548134</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.25137651387821</v>
+        <v>1.24708741016708</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.626693555780059</v>
+        <v>1.632442151781203</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9755881192963171</v>
+        <v>0.974744987689839</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.298879697175424</v>
+        <v>1.295232487122292</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.125148649750631</v>
+        <v>1.125205554982482</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.531465873477263</v>
+        <v>1.535864445942315</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>1.03792392474454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.217284792711732</v>
+        <v>1.217284792711731</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.143366966192505</v>
@@ -1237,7 +1237,7 @@
         <v>1.370011438148694</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>1.802902833208731</v>
+        <v>1.80290283320873</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6233724756012763</v>
+        <v>0.6285335213724896</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9013096998493031</v>
+        <v>0.9040051641482768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9355796356886448</v>
+        <v>0.9334471207669022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.085931054902163</v>
+        <v>1.094809075510158</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.038617073182426</v>
+        <v>1.03793846284909</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.752105365819822</v>
+        <v>1.762677622105889</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.528185382772463</v>
+        <v>1.522850605744316</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.070778068445433</v>
+        <v>2.075812182281482</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.905664201644476</v>
+        <v>0.9125459287475045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.446428409176975</v>
+        <v>1.455106994216919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.283676399411819</v>
+        <v>1.282915601822437</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.701689897457307</v>
+        <v>1.706760777536409</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8853866835752255</v>
+        <v>0.9289533221964559</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.153920023395836</v>
+        <v>1.165220843626234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.151142850366572</v>
+        <v>1.153503174014489</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.368441508776854</v>
+        <v>1.367205719196138</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.257428641950262</v>
+        <v>1.257977630919258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.051859494384278</v>
+        <v>2.04693649165457</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.78773579068593</v>
+        <v>1.77750104991016</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.335926392907214</v>
+        <v>2.33615847417125</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.088138533861586</v>
+        <v>1.082572892887455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.651692933549394</v>
+        <v>1.657336878020185</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.460265143054428</v>
+        <v>1.460714557482457</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.908555732704763</v>
+        <v>1.905463717664275</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.3495632258568</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4552767511491472</v>
+        <v>0.4552767511491473</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1.325172652690148</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.188408701803976</v>
+        <v>0.18746778983874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3193235219166592</v>
+        <v>0.3282848477259862</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2633556773097558</v>
+        <v>0.270338651745331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3145412940923946</v>
+        <v>0.3095746299529676</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.237443714172925</v>
+        <v>1.243259857129361</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.8188301704012</v>
+        <v>1.826813113735541</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.580911163621095</v>
+        <v>1.579513567757282</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.808840518973423</v>
+        <v>1.807478979653093</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.044109540634963</v>
+        <v>1.044322943749629</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.538629872589159</v>
+        <v>1.540264593040394</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.310302273733128</v>
+        <v>1.306340622561305</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.483082763859165</v>
+        <v>1.494195117642939</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3177535150755394</v>
+        <v>0.3164536482211744</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5224215896778274</v>
+        <v>0.5287502254152397</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4503567641336484</v>
+        <v>0.4682350297369723</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6393396120049833</v>
+        <v>0.6574081823834592</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.41843509724809</v>
+        <v>1.411763149698517</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.055253586080199</v>
+        <v>2.065628073974859</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.799802888661556</v>
+        <v>1.813117640332764</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.078473183868405</v>
+        <v>2.093126131565252</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.193072688939672</v>
+        <v>1.196282205015756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.747072104404615</v>
+        <v>1.755490641983034</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.495419134469277</v>
+        <v>1.511163986497134</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.749080401614934</v>
+        <v>1.753841252218848</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6789783662551701</v>
+        <v>0.6786358323295937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9566942823622449</v>
+        <v>0.9618166096030945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8783709797940222</v>
+        <v>0.8783436054524526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.173108226600202</v>
+        <v>1.167295129378905</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.097908690882081</v>
+        <v>1.096813329165957</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.563143175550183</v>
+        <v>1.562525830189213</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.339090310298196</v>
+        <v>1.342171848219035</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.693458013918933</v>
+        <v>1.688865071358132</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9021335665955217</v>
+        <v>0.9009688779897899</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.284688663201991</v>
+        <v>1.283957666515008</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.129305109744089</v>
+        <v>1.125551275582522</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.453134791218577</v>
+        <v>1.454056422856606</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7595346736721651</v>
+        <v>0.7583842686356944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.071026196655527</v>
+        <v>1.067610175262719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9624155805724115</v>
+        <v>0.9645877230177917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.284096770730781</v>
+        <v>1.286171428648273</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.19510696651888</v>
+        <v>1.194196910765386</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.681511735612911</v>
+        <v>1.6821874544272</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.45120410901703</v>
+        <v>1.453363377731505</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.806728759373947</v>
+        <v>1.808744859367902</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9670158645646106</v>
+        <v>0.962754901270682</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.368916493341209</v>
+        <v>1.366825666034624</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.205226623641885</v>
+        <v>1.1982668803645</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1.536907312525044</v>
+        <v>1.538542639986263</v>
       </c>
     </row>
     <row r="25">
